--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2643294.630414848</v>
+        <v>2769562.89369423</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13612885.47493279</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1522949.528467925</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5389099.818521451</v>
+        <v>5660124.43305219</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>248.3473402885393</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -671,13 +673,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>212.0346394779495</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +819,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>155.6718849712435</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>49.79170688638982</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>364.4883941741974</v>
+        <v>332.4965370384902</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1054,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>72.01067211405581</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1066,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>155.1738688991887</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1145,13 +1147,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>378.459028512113</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>244.708485287975</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>33.46701689716767</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1339,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1348,16 +1350,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.719293960352055</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1370,16 +1372,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>128.7099087072231</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1424,7 +1426,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1534,19 +1536,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>10.02059770683782</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>175.6665542587261</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1594,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>339.4727677772788</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>163.9607423225982</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>127.4188965120221</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2020,7 +2022,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>194.9918535962957</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2062,7 +2064,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2087,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2239,22 +2241,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>103.8121020651557</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,13 +2295,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>8.860680944583946</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.649880648615</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -2479,7 +2481,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2488,10 +2490,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>40.84698832683092</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>8.198410775363186</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2716,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2767,19 +2769,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>160.3366336391606</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>68.39389778306408</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>57.38291290721401</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2956,7 +2958,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3001,10 +3003,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>221.2674185797597</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3016,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3082,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
         <v>255.7713603095518</v>
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>6.750738971138739</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3253,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.7164064809815</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>135.7049349459097</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>107.8104032629636</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>64.22298003316328</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>210.694575810547</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>189.5314380831919</v>
+        <v>222.9095796790295</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>127.1357026005335</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>133.885794462093</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>206.3580517523955</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>242.8347014707352</v>
+        <v>241.9348073050513</v>
       </c>
       <c r="V40" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>210.6945758105466</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>85.2492808762514</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>127.1357026005335</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>129.9982212447115</v>
+        <v>88.9538920728979</v>
       </c>
       <c r="F43" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>107.8104032629636</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>179.4966503176938</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>189.5314380831919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.54790254396418</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>30.8906764676027</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>127.1357026005335</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>103.1368198100098</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>135.5952539392217</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>206.3580517523955</v>
+        <v>12.82988994717986</v>
       </c>
       <c r="U46" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>754.3794845092607</v>
+        <v>776.9486704051562</v>
       </c>
       <c r="C2" t="n">
-        <v>503.5235852279079</v>
+        <v>754.0883444588604</v>
       </c>
       <c r="D2" t="n">
-        <v>484.2713684533122</v>
+        <v>734.8361276842647</v>
       </c>
       <c r="E2" t="n">
-        <v>462.3348326415738</v>
+        <v>712.8995918725263</v>
       </c>
       <c r="F2" t="n">
-        <v>37.21065083097405</v>
+        <v>287.7754100619266</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>73.59900654884621</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>73.59900654884621</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231742</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>399.5154512777223</v>
+        <v>521.1434366268318</v>
       </c>
       <c r="L2" t="n">
-        <v>399.5154512777223</v>
+        <v>1000.08236086926</v>
       </c>
       <c r="M2" t="n">
-        <v>399.5154512777223</v>
+        <v>1000.08236086926</v>
       </c>
       <c r="N2" t="n">
-        <v>399.5154512777223</v>
+        <v>1000.08236086926</v>
       </c>
       <c r="O2" t="n">
-        <v>815.1719019525203</v>
+        <v>1479.021285111688</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1479.021285111688</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.739470489011</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>1587.244713637749</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="V2" t="n">
-        <v>1587.244713637749</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="W2" t="n">
-        <v>1587.244713637749</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="X2" t="n">
-        <v>1175.524714805496</v>
+        <v>1198.093900701392</v>
       </c>
       <c r="Y2" t="n">
-        <v>770.1874447603867</v>
+        <v>1196.797034696686</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231742</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231742</v>
       </c>
       <c r="J3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231742</v>
       </c>
       <c r="K3" t="n">
-        <v>475.2419029331441</v>
+        <v>410.5729931455429</v>
       </c>
       <c r="L3" t="n">
-        <v>932.027809635875</v>
+        <v>889.5119173879709</v>
       </c>
       <c r="M3" t="n">
-        <v>1388.813716338606</v>
+        <v>1368.450841630399</v>
       </c>
       <c r="N3" t="n">
-        <v>1388.813716338606</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.813716338606</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>358.9477772622305</v>
+        <v>195.9464635460988</v>
       </c>
       <c r="C4" t="n">
-        <v>186.9752141411466</v>
+        <v>38.70213529231742</v>
       </c>
       <c r="D4" t="n">
-        <v>186.9752141411466</v>
+        <v>38.70213529231742</v>
       </c>
       <c r="E4" t="n">
-        <v>186.9752141411466</v>
+        <v>38.70213529231742</v>
       </c>
       <c r="F4" t="n">
-        <v>136.6805607205508</v>
+        <v>38.70213529231742</v>
       </c>
       <c r="G4" t="n">
-        <v>136.6805607205508</v>
+        <v>38.70213529231742</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>38.70213529231742</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231742</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>94.40332068498475</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>303.8948463526241</v>
+        <v>393.4019879271584</v>
       </c>
       <c r="M4" t="n">
-        <v>695.080641322875</v>
+        <v>784.5877828974092</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1628.425962247645</v>
+        <v>1691.767416841771</v>
       </c>
       <c r="U4" t="n">
-        <v>1348.241513747949</v>
+        <v>1411.582968342075</v>
       </c>
       <c r="V4" t="n">
-        <v>1066.530046355978</v>
+        <v>1129.871500950104</v>
       </c>
       <c r="W4" t="n">
-        <v>791.6776425284911</v>
+        <v>855.0190971226173</v>
       </c>
       <c r="X4" t="n">
-        <v>549.1137459742962</v>
+        <v>612.4552005684224</v>
       </c>
       <c r="Y4" t="n">
-        <v>549.1137459742962</v>
+        <v>386.1124322581644</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1716.447907866797</v>
+        <v>1287.678729207028</v>
       </c>
       <c r="C5" t="n">
-        <v>1693.587581920501</v>
+        <v>860.7779992203286</v>
       </c>
       <c r="D5" t="n">
-        <v>1270.294961105501</v>
+        <v>437.4853784053289</v>
       </c>
       <c r="E5" t="n">
-        <v>844.3180212533588</v>
+        <v>415.5488425935905</v>
       </c>
       <c r="F5" t="n">
-        <v>476.1479261279069</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>357.6855680512415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>814.4714747539724</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>1271.257381456703</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>1271.257381456703</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>1733.552734122628</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1732.255868117923</v>
+        <v>1707.527093498559</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>475.2419029331441</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L6" t="n">
-        <v>475.2419029331441</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M6" t="n">
-        <v>475.2419029331441</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N6" t="n">
-        <v>932.027809635875</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>1388.813716338606</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>688.3934289515257</v>
+        <v>861.7025734666139</v>
       </c>
       <c r="C7" t="n">
-        <v>615.6553763110653</v>
+        <v>689.7300103455299</v>
       </c>
       <c r="D7" t="n">
-        <v>452.338603437836</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="E7" t="n">
-        <v>452.338603437836</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>280.4768292123964</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>304.6336537379666</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>659.3229750323874</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1050.508770002638</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1428.000280878674</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U7" t="n">
-        <v>1104.902165973849</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="V7" t="n">
-        <v>1104.902165973849</v>
+        <v>1726.026124276714</v>
       </c>
       <c r="W7" t="n">
-        <v>1104.902165973849</v>
+        <v>1451.173720449226</v>
       </c>
       <c r="X7" t="n">
-        <v>1104.902165973849</v>
+        <v>1208.609823895032</v>
       </c>
       <c r="Y7" t="n">
-        <v>878.5593976635914</v>
+        <v>1051.868542178679</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>908.3670997859888</v>
+        <v>412.0068991484209</v>
       </c>
       <c r="C8" t="n">
-        <v>481.4663697992889</v>
+        <v>389.1465732021251</v>
       </c>
       <c r="D8" t="n">
-        <v>462.2141530246932</v>
+        <v>369.8943564275295</v>
       </c>
       <c r="E8" t="n">
-        <v>440.2776172129549</v>
+        <v>347.9578206157911</v>
       </c>
       <c r="F8" t="n">
-        <v>419.1938394427592</v>
+        <v>326.8740428455954</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>326.5753844754481</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>399.5154512777223</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>399.5154512777223</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>814.4714747539724</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1271.257381456703</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1741.232328914477</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1741.232328914477</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.232328914477</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W8" t="n">
-        <v>1741.232328914477</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X8" t="n">
-        <v>1329.512330082224</v>
+        <v>833.1521294446566</v>
       </c>
       <c r="Y8" t="n">
-        <v>924.1750600371148</v>
+        <v>427.8148593995469</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>36.91199246082674</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L9" t="n">
-        <v>36.91199246082674</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M9" t="n">
-        <v>475.2419029331441</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N9" t="n">
-        <v>932.027809635875</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>299.9973335937801</v>
+        <v>995.2762092992346</v>
       </c>
       <c r="C10" t="n">
-        <v>299.9973335937801</v>
+        <v>823.3036461781505</v>
       </c>
       <c r="D10" t="n">
-        <v>136.6805607205508</v>
+        <v>659.9868733049212</v>
       </c>
       <c r="E10" t="n">
-        <v>136.6805607205508</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>136.6805607205508</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>136.6805607205508</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>36.91199246082674</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>391.6013137552475</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>782.7871087254983</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1160.278619601534</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1515.706748281297</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1806.305960203198</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1104.902165973849</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>823.1906985818782</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="W10" t="n">
-        <v>548.3382947543912</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="X10" t="n">
-        <v>305.7743982001963</v>
+        <v>1411.784946321558</v>
       </c>
       <c r="Y10" t="n">
-        <v>299.9973335937801</v>
+        <v>1185.4421780113</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1364.008701081337</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>1233.998692286162</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
-        <v>810.7060714711625</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>810.7060714711625</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>810.7060714711625</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G11" t="n">
-        <v>406.3670090606112</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H11" t="n">
-        <v>108.498630534646</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I11" t="n">
-        <v>73.60175927811719</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>436.2052180950127</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>1151.713526070512</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>2062.535297137212</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2062.535297137212</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N11" t="n">
-        <v>2062.535297137212</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O11" t="n">
-        <v>2398.166870361845</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P11" t="n">
-        <v>3106.446149519773</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q11" t="n">
-        <v>3562.531629023956</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
-        <v>3680.087963905859</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3575.720669778999</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3354.795098823633</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3354.795098823633</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2997.305683949882</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2600.914334250229</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2189.194335417977</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>1783.857065372867</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>640.7252503095724</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>523.2193468270772</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>419.3793883423622</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>314.6774546152994</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>221.0316242982036</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>126.9778525158076</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>73.60175927811719</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>73.60175927811719</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>345.2992485577083</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>345.2992485577083</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2992485577083</v>
+        <v>138.8060889717951</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2992485577083</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N12" t="n">
-        <v>345.2992485577083</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O12" t="n">
-        <v>619.9268858726464</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P12" t="n">
-        <v>1336.124602911144</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1800.270079773924</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1882.289389858627</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1800.965142419881</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1659.08520671756</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1474.317010637196</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1269.343871776462</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1072.82249460968</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>909.3451483763428</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>769.6522597296351</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.7528694978701</v>
+        <v>879.947609078273</v>
       </c>
       <c r="C13" t="n">
-        <v>408.780306376786</v>
+        <v>707.975045957189</v>
       </c>
       <c r="D13" t="n">
-        <v>245.4635335035568</v>
+        <v>544.6582730839597</v>
       </c>
       <c r="E13" t="n">
-        <v>245.4635335035568</v>
+        <v>378.4500672368132</v>
       </c>
       <c r="F13" t="n">
-        <v>73.60175927811719</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G13" t="n">
-        <v>73.60175927811719</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>73.60175927811719</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>73.60175927811719</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>131.0930875022752</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>357.6206887081124</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>712.3100100025332</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1103.495804972784</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1480.98731584882</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1836.415444528583</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2127.014656450484</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2254.014786691246</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2254.014786691246</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.014786691246</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>2076.573822793543</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1796.389374293847</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V13" t="n">
-        <v>1514.677906901876</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W13" t="n">
-        <v>1239.825503074389</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X13" t="n">
-        <v>997.2616065201937</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y13" t="n">
-        <v>770.9188382099358</v>
+        <v>1070.113577790339</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2512.000543935605</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.099813948905</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1661.807193133905</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1235.830253281762</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>810.7060714711625</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>406.3670090606112</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>108.498630534646</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>73.60175927811719</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>436.2052180950127</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1151.713526070512</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>2062.535297137212</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2769.266192839159</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3680.087963905859</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3680.087963905859</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P14" t="n">
-        <v>3680.087963905859</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3680.087963905859</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3680.087963905859</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3680.087963905859</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3680.087963905859</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3680.087963905859</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3680.087963905859</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3680.087963905859</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3337.186178272244</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2931.848908227134</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>640.7252503095724</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>523.2193468270772</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>419.3793883423622</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>314.6774546152994</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>221.0316242982036</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>126.9778525158076</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>73.60175927811719</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>81.04840224002902</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>352.7458915196201</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>943.2308180879597</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L15" t="n">
-        <v>943.2308180879597</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M15" t="n">
-        <v>1800.270079773924</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.270079773924</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="O15" t="n">
-        <v>1800.270079773924</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="P15" t="n">
-        <v>1800.270079773924</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1800.270079773924</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1882.289389858627</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1800.965142419881</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1659.08520671756</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1474.317010637196</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1269.343871776462</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1072.82249460968</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>909.3451483763428</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>769.6522597296351</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>417.4360966246408</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C16" t="n">
-        <v>245.4635335035568</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D16" t="n">
-        <v>245.4635335035568</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E16" t="n">
-        <v>245.4635335035568</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F16" t="n">
-        <v>73.60175927811719</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
-        <v>73.60175927811719</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>73.60175927811719</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>73.60175927811719</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>131.0930875022752</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>357.6206887081124</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>712.3100100025332</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1103.495804972784</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1480.98731584882</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1836.415444528583</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2127.014656450484</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2254.014786691246</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2254.014786691246</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2156.596397694413</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>1913.257049920313</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U16" t="n">
-        <v>1633.072601420617</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V16" t="n">
-        <v>1351.361134028646</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="W16" t="n">
-        <v>1076.508730201159</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="X16" t="n">
-        <v>833.9448336469643</v>
+        <v>1541.266716079099</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.6020653367063</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5506,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5513,49 +5515,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>188.2350251358961</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>903.7433331113951</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1833.368380730672</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M17" t="n">
-        <v>2837.65448214973</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N17" t="n">
-        <v>3813.905540636431</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O17" t="n">
-        <v>4659.050190787243</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787243</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5589,25 +5591,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>589.9333192441977</v>
+        <v>818.4078435766714</v>
       </c>
       <c r="C19" t="n">
-        <v>417.9607561231137</v>
+        <v>646.4352804555874</v>
       </c>
       <c r="D19" t="n">
-        <v>417.9607561231137</v>
+        <v>646.4352804555874</v>
       </c>
       <c r="E19" t="n">
-        <v>417.9607561231137</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F19" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5701,22 +5703,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>2085.75427253987</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1805.569824040174</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1523.858356648203</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>1249.005952820716</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="X19" t="n">
-        <v>1006.442056266521</v>
+        <v>1234.916580598995</v>
       </c>
       <c r="Y19" t="n">
-        <v>780.0992879562634</v>
+        <v>1008.573812288737</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
@@ -5750,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3086.290586304201</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3931.435236455013</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4639.71451561294</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>475.3442790273841</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>475.3442790273841</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>373.4203922683193</v>
+        <v>3751.926991295665</v>
       </c>
       <c r="C22" t="n">
-        <v>268.5596831115964</v>
+        <v>3579.954428174581</v>
       </c>
       <c r="D22" t="n">
-        <v>268.5596831115964</v>
+        <v>3416.637655301352</v>
       </c>
       <c r="E22" t="n">
-        <v>268.5596831115964</v>
+        <v>3416.637655301352</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>4419.949807644491</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>4410.999624872184</v>
       </c>
       <c r="X22" t="n">
-        <v>789.9291292906429</v>
+        <v>4168.435728317989</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.5863609803849</v>
+        <v>3942.092960007731</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -5990,34 +5992,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L23" t="n">
-        <v>1031.927761025105</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M23" t="n">
-        <v>2036.213862444163</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N23" t="n">
-        <v>3012.464920930865</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O23" t="n">
-        <v>3857.609571081677</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P23" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6029,7 +6031,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
         <v>2960.549862354846</v>
@@ -6066,19 +6068,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>374.0002026854196</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3486.024770240484</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C25" t="n">
-        <v>3314.0522071194</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D25" t="n">
-        <v>3314.0522071194</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E25" t="n">
-        <v>3147.844001272254</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F25" t="n">
-        <v>2975.982227046814</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G25" t="n">
-        <v>2934.722642878298</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291426</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>4945.000622810561</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>4701.661275036461</v>
+        <v>2057.260857019848</v>
       </c>
       <c r="U25" t="n">
-        <v>4701.661275036461</v>
+        <v>1777.076408520152</v>
       </c>
       <c r="V25" t="n">
-        <v>4419.94980764449</v>
+        <v>1777.076408520152</v>
       </c>
       <c r="W25" t="n">
-        <v>4145.097403817002</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="X25" t="n">
-        <v>3902.533507262808</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y25" t="n">
-        <v>3676.19073895255</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
         <v>2113.800768076615</v>
@@ -6209,7 +6211,7 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E26" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
         <v>839.4070255988736</v>
@@ -6218,55 +6220,55 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>533.9931985757484</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.618246195025</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2467.904347614083</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3444.155406100784</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.300056251596</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409524</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
         <v>2960.549862354846</v>
@@ -6306,25 +6308,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>648.6278400003578</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>648.6278400003578</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O27" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.1370507523521</v>
+        <v>3918.135197142812</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>3746.162634021728</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>3582.845861148498</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>3416.637655301352</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="V28" t="n">
-        <v>1380.062088156358</v>
+        <v>4419.949807644491</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.20968432887</v>
+        <v>4419.949807644491</v>
       </c>
       <c r="X28" t="n">
-        <v>862.6457877746757</v>
+        <v>4177.385911090296</v>
       </c>
       <c r="Y28" t="n">
-        <v>636.3030194644177</v>
+        <v>4108.301165854878</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6543,16 +6545,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1013.622061704626</v>
+        <v>847.4138558574795</v>
       </c>
       <c r="C31" t="n">
-        <v>841.6494985835418</v>
+        <v>675.4412927363954</v>
       </c>
       <c r="D31" t="n">
-        <v>678.3327257103125</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E31" t="n">
-        <v>512.124519863166</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F31" t="n">
-        <v>512.124519863166</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
         <v>345.8675501573982</v>
@@ -6619,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6649,22 +6651,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1842.039637015407</v>
       </c>
       <c r="U31" t="n">
-        <v>1822.202732251165</v>
+        <v>1561.855188515711</v>
       </c>
       <c r="V31" t="n">
-        <v>1540.491264859194</v>
+        <v>1280.14372112374</v>
       </c>
       <c r="W31" t="n">
-        <v>1540.491264859194</v>
+        <v>1280.14372112374</v>
       </c>
       <c r="X31" t="n">
-        <v>1297.927368304999</v>
+        <v>1037.579824569545</v>
       </c>
       <c r="Y31" t="n">
-        <v>1071.584599994741</v>
+        <v>1037.579824569545</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O32" t="n">
-        <v>4541.493855905341</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905341</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C33" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D33" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E33" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F33" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G33" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L33" t="n">
-        <v>1529.586448057074</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="M33" t="n">
-        <v>1529.586448057074</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="N33" t="n">
-        <v>1529.586448057074</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O33" t="n">
-        <v>1529.586448057074</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S33" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T33" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U33" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V33" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W33" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X33" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y33" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>446.1370507523521</v>
+        <v>3385.144476738222</v>
       </c>
       <c r="C34" t="n">
-        <v>274.1644876312681</v>
+        <v>3213.171913617138</v>
       </c>
       <c r="D34" t="n">
-        <v>274.1644876312681</v>
+        <v>3213.171913617138</v>
       </c>
       <c r="E34" t="n">
-        <v>274.1644876312681</v>
+        <v>3206.352985363462</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>2185.297351822124</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T34" t="n">
-        <v>1941.958004048024</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U34" t="n">
-        <v>1661.773555548329</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V34" t="n">
-        <v>1380.062088156358</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W34" t="n">
-        <v>1105.20968432887</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X34" t="n">
-        <v>862.6457877746757</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y34" t="n">
-        <v>636.3030194644177</v>
+        <v>3575.310445450287</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2285.74068357684</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>724.0336961385133</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
-        <v>354.5915049844907</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H35" t="n">
-        <v>91.6199977150544</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>454.2234565319499</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>1169.731764507449</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L35" t="n">
-        <v>2099.356812126726</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M35" t="n">
-        <v>3103.642913545784</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N35" t="n">
-        <v>3872.720606594792</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O35" t="n">
-        <v>3872.720606594792</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P35" t="n">
-        <v>4580.99988575272</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q35" t="n">
-        <v>4580.99988575272</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>4580.99988575272</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>4511.529462882389</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4325.500763183551</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
-        <v>4102.042725036492</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2670.692176611841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>658.7434887465096</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>541.2375852640143</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>437.3976267792994</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>332.6956930522366</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>928.4188057979605</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>928.4188057979605</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N36" t="n">
-        <v>1900.307628295564</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>1900.307628295564</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1900.307628295564</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S36" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T36" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U36" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V36" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W36" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>927.3633868132799</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>787.6704981665723</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>930.5230214435896</v>
+        <v>3350.149253855307</v>
       </c>
       <c r="C37" t="n">
-        <v>793.4473295790344</v>
+        <v>3350.149253855307</v>
       </c>
       <c r="D37" t="n">
-        <v>665.0274279623339</v>
+        <v>3350.149253855307</v>
       </c>
       <c r="E37" t="n">
-        <v>533.7160933717163</v>
+        <v>3350.149253855307</v>
       </c>
       <c r="F37" t="n">
-        <v>396.7511904028055</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="G37" t="n">
-        <v>265.3910919535664</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H37" t="n">
-        <v>156.4916947182496</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I37" t="n">
-        <v>91.6199977150544</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J37" t="n">
-        <v>183.3137494577363</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K37" t="n">
-        <v>444.0437741820973</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L37" t="n">
-        <v>832.935518995042</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M37" t="n">
-        <v>1258.323737483817</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N37" t="n">
-        <v>1670.017671878376</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O37" t="n">
-        <v>2059.648224076663</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P37" t="n">
-        <v>2384.449859517088</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2545.652413276374</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R37" t="n">
-        <v>2533.510671220076</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S37" t="n">
-        <v>2398.27249499574</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T37" t="n">
-        <v>2189.830018478168</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U37" t="n">
-        <v>1944.542441235001</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V37" t="n">
-        <v>1697.727845099559</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W37" t="n">
-        <v>1484.905041250522</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.238015952856</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y37" t="n">
-        <v>1085.792118899127</v>
+        <v>3350.149253855307</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2285.74068357684</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>724.0336961385133</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>354.5915049844907</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>91.61999771505441</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
-        <v>91.61999771505441</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>91.61999771505441</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>807.1283056905535</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1736.75335330983</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2741.039454728888</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3717.290513215589</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O38" t="n">
-        <v>4562.435163366401</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P38" t="n">
-        <v>4580.999885752721</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q38" t="n">
-        <v>4580.999885752721</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>4580.999885752721</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>4511.529462882389</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4325.500763183551</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4102.042725036492</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2670.692176611841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>658.7434887465097</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>541.2375852640145</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>437.3976267792995</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>332.6956930522367</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>91.61999771505441</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>91.61999771505441</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>363.3174869946455</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>953.8024135629851</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>953.8024135629851</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>953.8024135629851</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1900.307628295564</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="O39" t="n">
-        <v>1900.307628295564</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P39" t="n">
-        <v>1900.307628295564</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q39" t="n">
-        <v>1900.307628295564</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>927.36338681328</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>787.6704981665724</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>930.5230214435898</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C40" t="n">
-        <v>793.4473295790345</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D40" t="n">
-        <v>665.0274279623341</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E40" t="n">
-        <v>533.7160933717164</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>396.7511904028056</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>265.3910919535665</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>156.4916947182496</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>91.61999771505441</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>183.3137494577363</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>444.0437741820973</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
-        <v>832.935518995042</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>1258.323737483817</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>2059.648224076663</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2533.510671220076</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2398.27249499574</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T40" t="n">
-        <v>2189.830018478168</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U40" t="n">
-        <v>1944.542441235001</v>
+        <v>1991.298534268705</v>
       </c>
       <c r="V40" t="n">
-        <v>1697.727845099559</v>
+        <v>1709.587066876733</v>
       </c>
       <c r="W40" t="n">
-        <v>1484.905041250522</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.238015952856</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y40" t="n">
-        <v>1085.792118899127</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1496.517469699492</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1104.513610969321</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>716.1178614108504</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>716.1178614108504</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>325.8905508567794</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G41" t="n">
-        <v>325.8905508567794</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H41" t="n">
-        <v>62.91904358734307</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>62.91904358734307</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>425.5225024042386</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>1141.030810379738</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>1202.964256311672</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>1981.587420705042</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N41" t="n">
-        <v>1981.587420705042</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O41" t="n">
-        <v>1981.587420705042</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>2689.86669986297</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>3145.952179367153</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>3145.952179367153</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>3076.481756496823</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>2890.453056797985</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>2666.995018650926</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2344.402475033704</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2258.292090310218</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>1881.468962734494</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1881.468962734494</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>630.0425346187983</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>512.5366311363031</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>408.6966726515881</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>303.9947389245253</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>210.3489086074295</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>116.2951368250335</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>62.91904358734307</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>70.3656865492549</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>342.063175828846</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>932.5481023971856</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L42" t="n">
-        <v>932.5481023971856</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M42" t="n">
-        <v>932.5481023971856</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N42" t="n">
-        <v>932.5481023971856</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O42" t="n">
-        <v>932.5481023971856</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P42" t="n">
-        <v>1325.44188722037</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1789.58736408315</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1871.606674167853</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1790.282426729107</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1648.402491026786</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1463.634294946422</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1258.661156085688</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1062.139778918906</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>898.6624326855687</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>758.969544038861</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>901.8220673158784</v>
+        <v>843.1025083526774</v>
       </c>
       <c r="C43" t="n">
-        <v>764.7463754513232</v>
+        <v>671.1299452315934</v>
       </c>
       <c r="D43" t="n">
-        <v>636.3264738346227</v>
+        <v>507.8131723583641</v>
       </c>
       <c r="E43" t="n">
-        <v>505.015139244005</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F43" t="n">
-        <v>368.0502362750942</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G43" t="n">
-        <v>236.6901378258551</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H43" t="n">
-        <v>127.7907405905383</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>62.91904358734307</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>154.6127953300249</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>415.342820054386</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
-        <v>804.2345648673306</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1229.622783356105</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1641.316717750665</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>2030.947269948952</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2355.748905389377</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2516.951459148663</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2504.809717092365</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2369.571540868028</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>2188.261793072378</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U43" t="n">
-        <v>1942.974215829211</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V43" t="n">
-        <v>1696.159619693769</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W43" t="n">
-        <v>1456.204087122811</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X43" t="n">
-        <v>1248.537061825144</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y43" t="n">
-        <v>1057.091164771415</v>
+        <v>1033.268477064743</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1497.370227741035</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1105.366369010864</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>716.9706194523931</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>325.8905508567794</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>325.8905508567794</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>325.8905508567794</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
-        <v>62.91904358734307</v>
+        <v>137.199584662358</v>
       </c>
       <c r="I44" t="n">
-        <v>62.91904358734307</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>62.91904358734307</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>778.4273515628421</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.050515956213</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M44" t="n">
-        <v>1588.705850580413</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N44" t="n">
-        <v>2367.329014973783</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O44" t="n">
-        <v>3145.952179367153</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P44" t="n">
-        <v>3145.952179367153</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q44" t="n">
-        <v>3145.952179367153</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R44" t="n">
-        <v>3145.952179367153</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>3145.952179367153</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>2959.923479668315</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>2928.720776165686</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2606.128232548464</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2244.63375410534</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>1867.810626529616</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>1497.370227741035</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>630.0425346187983</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>512.5366311363031</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>408.6966726515881</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>303.9947389245253</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>210.3489086074295</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>116.2951368250335</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>62.91904358734307</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>62.91904358734307</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>62.91904358734307</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>62.91904358734307</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L45" t="n">
-        <v>62.91904358734307</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="M45" t="n">
-        <v>62.91904358734307</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="N45" t="n">
-        <v>691.2634802665755</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="O45" t="n">
-        <v>691.2634802665755</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P45" t="n">
-        <v>1407.461197305073</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1871.606674167853</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1871.606674167853</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1790.282426729107</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1648.402491026786</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1463.634294946422</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1258.661156085688</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1062.139778918906</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>898.6624326855687</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>758.969544038861</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.6893385939575</v>
+        <v>3436.220184719758</v>
       </c>
       <c r="C46" t="n">
-        <v>737.6136467294023</v>
+        <v>3264.247621598674</v>
       </c>
       <c r="D46" t="n">
-        <v>609.1937451127018</v>
+        <v>3100.930848725444</v>
       </c>
       <c r="E46" t="n">
-        <v>505.015139244005</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F46" t="n">
-        <v>368.0502362750942</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G46" t="n">
-        <v>236.6901378258551</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H46" t="n">
-        <v>127.7907405905383</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I46" t="n">
-        <v>62.91904358734307</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J46" t="n">
-        <v>154.6127953300249</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K46" t="n">
-        <v>415.342820054386</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L46" t="n">
-        <v>804.2345648673306</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M46" t="n">
-        <v>1229.622783356105</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N46" t="n">
-        <v>1641.316717750665</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O46" t="n">
-        <v>2030.947269948952</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P46" t="n">
-        <v>2355.748905389377</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>2516.951459148663</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R46" t="n">
-        <v>2504.809717092365</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S46" t="n">
-        <v>2369.571540868028</v>
+        <v>4945.000622810561</v>
       </c>
       <c r="T46" t="n">
-        <v>2161.129064350457</v>
+        <v>4932.04113801543</v>
       </c>
       <c r="U46" t="n">
-        <v>1915.84148710729</v>
+        <v>4651.856689515735</v>
       </c>
       <c r="V46" t="n">
-        <v>1669.026890971848</v>
+        <v>4370.145222123763</v>
       </c>
       <c r="W46" t="n">
-        <v>1429.07135840089</v>
+        <v>4095.292818296276</v>
       </c>
       <c r="X46" t="n">
-        <v>1221.404333103224</v>
+        <v>3852.728921742081</v>
       </c>
       <c r="Y46" t="n">
-        <v>1029.958436049494</v>
+        <v>3626.386153431823</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>156.8129265701819</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865907</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
@@ -7991,16 +7993,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>457.2459600376383</v>
+        <v>521.1676505099919</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,16 +8060,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>465.1567191589065</v>
+        <v>398.0263629780055</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>506.2917778681973</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>506.8734716662958</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675094</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
@@ -8076,7 +8078,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8137,10 +8139,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>233.5263615801855</v>
+        <v>93.31363181978782</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8213,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>353.4336722031772</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>571.1852249800523</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
@@ -8237,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>457.6348575812177</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8374,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>233.3185262234007</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8386,7 +8388,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961657</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>456.5787613602906</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>547.9365584046774</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8529,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>465.8542658379011</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>467.7777678727251</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8629,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.31013128815742</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,16 +8695,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>958.3340334090876</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>376.4127504920175</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8711,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,31 +8768,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>59.38718324550895</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>300.5735435756951</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,25 +8932,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>958.3340334090876</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>751.3008545175603</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>957.3016138109108</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>888.7930044375441</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>473.9680076978074</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.2202743644426</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9246,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1004.802661823039</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>52.52212467581292</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q20" t="n">
-        <v>397.6042905607436</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9486,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>392.3845811786348</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9656,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>472.1756697257294</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
-        <v>475.3690562152009</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>105.5494758988743</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>464.8736204150517</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9954,28 +9956,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>574.2427960500296</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>60.04398625350153</v>
       </c>
       <c r="P27" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>702.6160445827093</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10127,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10191,19 +10193,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>354.5569311593796</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10355,19 +10357,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>859.1289664256981</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>397.6042905607445</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10428,13 +10430,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823038</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10443,7 +10445,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>407.0273017394389</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10586,7 +10588,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10595,19 +10597,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>814.1257774294039</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>105.9095497086629</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,13 +10670,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>280.9020403556215</v>
       </c>
       <c r="N36" t="n">
-        <v>1003.048909524252</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10683,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10829,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>56.32760664489774</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>397.6042905607436</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10901,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10911,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>977.4089016807933</v>
+        <v>143.5544680578214</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>100.8710787275061</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>823.9193077412201</v>
+        <v>304.4845953330639</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11081,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11154,13 +11156,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>418.6332501171364</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>824.8000872744112</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>69.40634837842184</v>
+        <v>995.9774475394107</v>
       </c>
       <c r="N44" t="n">
-        <v>823.7676676762344</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>823.8790041978125</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>656.0343783945846</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>171.2323981147659</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,16 +23260,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>293.9218139796098</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>160.1225587763473</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>65.23940003763292</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>68.13003106665138</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>60.11859830455714</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23898,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>37.12722727665289</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>45.91410070006327</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>66.44073542471746</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24181,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>263.2431988446282</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>123.7474116818793</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.7075435209958</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>118.5577190788908</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>155.6854428440913</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>130.881396117731</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -24889,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>19.63853571659928</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25083,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>157.7953848175362</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25309,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>26.86140143470155</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1.169760948125884</v>
       </c>
     </row>
     <row r="38">
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>35.44779670964749</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>26.861401434702</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25634,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>387.1692679096575</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>365.7477692424823</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>272.6302527824416</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>366.735994800695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>75.59223171577707</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>26.86140143470172</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>381.1019781046512</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>386.3250374485302</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>365.7477692424823</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.77571864162749</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>190.3327812979856</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>26.8614014347017</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>228.0760643491791</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>475082.8486172487</v>
+        <v>476230.257843231</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>475082.8486172487</v>
+        <v>479945.3171919784</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>475082.8486172487</v>
+        <v>479945.3171919784</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>395849.5621079809</v>
+        <v>493103.3693430057</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>395849.5621079809</v>
+        <v>493103.3693430057</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>493103.3693430057</v>
+        <v>493103.3693430058</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>502668.0950603095</v>
+        <v>493103.3693430057</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>502668.0950603095</v>
+        <v>493103.3693430057</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>405414.2878252848</v>
+        <v>493103.3693430057</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>405414.2878252845</v>
+        <v>493103.3693430058</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>582442.6680111634</v>
+        <v>582442.668011163</v>
       </c>
       <c r="C2" t="n">
-        <v>582442.6680111631</v>
+        <v>582442.6680111629</v>
       </c>
       <c r="D2" t="n">
-        <v>582442.6680111632</v>
+        <v>582442.6680111629</v>
       </c>
       <c r="E2" t="n">
-        <v>451204.6536725191</v>
+        <v>562030.4031374473</v>
       </c>
       <c r="F2" t="n">
-        <v>451204.6536725192</v>
+        <v>562030.4031374474</v>
       </c>
       <c r="G2" t="n">
+        <v>562030.4031374475</v>
+      </c>
+      <c r="H2" t="n">
         <v>562030.4031374473</v>
-      </c>
-      <c r="H2" t="n">
-        <v>562030.4031374474</v>
       </c>
       <c r="I2" t="n">
         <v>562030.4031374472</v>
       </c>
       <c r="J2" t="n">
+        <v>562030.4031374473</v>
+      </c>
+      <c r="K2" t="n">
         <v>562030.4031374474</v>
       </c>
-      <c r="K2" t="n">
-        <v>562030.4031374473</v>
-      </c>
       <c r="L2" t="n">
-        <v>562030.4031374472</v>
+        <v>562030.4031374474</v>
       </c>
       <c r="M2" t="n">
-        <v>581797.994376729</v>
+        <v>562030.4031374474</v>
       </c>
       <c r="N2" t="n">
-        <v>581797.994376729</v>
+        <v>562030.4031374474</v>
       </c>
       <c r="O2" t="n">
-        <v>470972.2449118019</v>
+        <v>562030.4031374477</v>
       </c>
       <c r="P2" t="n">
-        <v>470972.2449118024</v>
+        <v>562030.4031374474</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695911</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.8336736123</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>136934.4649596618</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>98331.26265117207</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701986</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>108651.5866468254</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199461.1094204221</v>
+        <v>195487.3209125818</v>
       </c>
       <c r="C4" t="n">
-        <v>199461.1094204221</v>
+        <v>182621.065515899</v>
       </c>
       <c r="D4" t="n">
-        <v>199461.1094204221</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="E4" t="n">
-        <v>58076.5181718988</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="F4" t="n">
-        <v>58076.5181718988</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="G4" t="n">
+        <v>72380.62724986367</v>
+      </c>
+      <c r="H4" t="n">
+        <v>72380.62724986368</v>
+      </c>
+      <c r="I4" t="n">
         <v>72380.62724986371</v>
-      </c>
-      <c r="H4" t="n">
-        <v>72380.62724986373</v>
-      </c>
-      <c r="I4" t="n">
-        <v>72380.6272498637</v>
       </c>
       <c r="J4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="K4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="L4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="M4" t="n">
-        <v>101968.7631056897</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="N4" t="n">
-        <v>101968.7631056897</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="O4" t="n">
-        <v>87664.65402772475</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="P4" t="n">
-        <v>87664.65402772475</v>
+        <v>72380.62724986368</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216124</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55937.33705136905</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55937.33705136905</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
+        <v>77750.06218842969</v>
+      </c>
+      <c r="H5" t="n">
+        <v>77750.06218842969</v>
+      </c>
+      <c r="I5" t="n">
+        <v>77750.06218842969</v>
+      </c>
+      <c r="J5" t="n">
+        <v>77750.06218842969</v>
+      </c>
+      <c r="K5" t="n">
+        <v>77750.06218842969</v>
+      </c>
+      <c r="L5" t="n">
+        <v>77750.06218842969</v>
+      </c>
+      <c r="M5" t="n">
         <v>77750.06218842967</v>
       </c>
-      <c r="H5" t="n">
+      <c r="N5" t="n">
         <v>77750.06218842967</v>
       </c>
-      <c r="I5" t="n">
+      <c r="O5" t="n">
         <v>77750.06218842967</v>
       </c>
-      <c r="J5" t="n">
+      <c r="P5" t="n">
         <v>77750.06218842967</v>
-      </c>
-      <c r="K5" t="n">
-        <v>77750.06218842967</v>
-      </c>
-      <c r="L5" t="n">
-        <v>77750.06218842967</v>
-      </c>
-      <c r="M5" t="n">
-        <v>72535.60588240981</v>
-      </c>
-      <c r="N5" t="n">
-        <v>72535.60588240983</v>
-      </c>
-      <c r="O5" t="n">
-        <v>50722.8807453492</v>
-      </c>
-      <c r="P5" t="n">
-        <v>50722.8807453492</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166675.1237023924</v>
+        <v>161789.4282068289</v>
       </c>
       <c r="C6" t="n">
-        <v>321300.8443205127</v>
+        <v>308968.5177842234</v>
       </c>
       <c r="D6" t="n">
-        <v>321300.8443205128</v>
+        <v>332375.3514578357</v>
       </c>
       <c r="E6" t="n">
-        <v>200256.3334895894</v>
+        <v>196160.3571425133</v>
       </c>
       <c r="F6" t="n">
-        <v>337190.7984492513</v>
+        <v>411899.713699154</v>
       </c>
       <c r="G6" t="n">
-        <v>313568.4510479819</v>
+        <v>411899.7136991542</v>
       </c>
       <c r="H6" t="n">
+        <v>411899.713699154</v>
+      </c>
+      <c r="I6" t="n">
+        <v>411899.7136991538</v>
+      </c>
+      <c r="J6" t="n">
+        <v>285322.4451188652</v>
+      </c>
+      <c r="K6" t="n">
+        <v>393253.1133421342</v>
+      </c>
+      <c r="L6" t="n">
+        <v>411899.713699154</v>
+      </c>
+      <c r="M6" t="n">
+        <v>231835.8422439864</v>
+      </c>
+      <c r="N6" t="n">
         <v>411899.7136991541</v>
       </c>
-      <c r="I6" t="n">
-        <v>411899.7136991539</v>
-      </c>
-      <c r="J6" t="n">
-        <v>291177.1967563971</v>
-      </c>
-      <c r="K6" t="n">
-        <v>411899.713699154</v>
-      </c>
-      <c r="L6" t="n">
-        <v>411899.7136991539</v>
-      </c>
-      <c r="M6" t="n">
-        <v>298642.0387418041</v>
-      </c>
-      <c r="N6" t="n">
-        <v>407293.6253886295</v>
-      </c>
       <c r="O6" t="n">
-        <v>332584.7101387279</v>
+        <v>411899.7136991543</v>
       </c>
       <c r="P6" t="n">
-        <v>332584.7101387284</v>
+        <v>411899.7136991541</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26718,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>920.0219909764647</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>920.0219909764647</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>786.4880448417883</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>786.4880448417883</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162637</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>458.6220852161305</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>358.7619265963918</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162637</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>325.0881390814538</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162637</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>458.6220852161305</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>358.7619265963918</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>174.2843823982936</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>188.2610323084963</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>14.58095251862963</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -27546,7 +27548,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>120.3514495967954</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -27555,7 +27557,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
+        <v>88.37640295400354</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>56.38454581829637</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27679,7 +27681,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>98.24216537581734</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>68.9054717279667</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27865,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>21.8366432743328</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>50.18120945273051</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>131.0791068915073</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.3600466668033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,10 +34701,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>121.0483257753725</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>419.8550006816142</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>442.7574853255732</v>
+        <v>375.6271291446722</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,10 +34859,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>211.6076016844843</v>
+        <v>71.39487192408659</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34957,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>435.2356237478844</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>212.3538717706887</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35106,7 +35108,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>359.0183117977413</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>419.1474984608587</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35349,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.69056852337247</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,16 +35415,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>920.0219909764647</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>339.0217911359934</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35431,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>36.87209653127939</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>920.0219909764647</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>713.8695916181285</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>920.0219909764647</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>865.6962239252161</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>452.1971664929787</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>86.80031487885611</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>981.7058813107108</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>29.35023495359069</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q20" t="n">
-        <v>361.4796159561455</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>369.2878006663069</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36376,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>436.0509951211314</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
-        <v>452.1971664929787</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>69.78487510406498</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36674,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>36.8720965312793</v>
       </c>
       <c r="P27" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36847,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37075,19 +37077,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>821.7380070696739</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>361.4796159561464</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37148,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>981.7058813107097</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37163,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37315,19 +37317,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>776.8461545949579</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>69.78487510406481</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="N36" t="n">
-        <v>981.7058813107108</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L37" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M37" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N37" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O37" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P37" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37549,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>18.75224483466644</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>361.4796159561455</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>956.0658734672517</v>
+        <v>122.2114398442797</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L40" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M40" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N40" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O40" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P40" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>62.55903629488316</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>786.4880448417883</v>
+        <v>267.0533324336321</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37801,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>396.8624089123077</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L43" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M43" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N43" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O43" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>786.4880448417883</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>31.97508547899002</v>
+        <v>958.5461846399789</v>
       </c>
       <c r="N44" t="n">
-        <v>786.4880448417883</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>786.4880448417883</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>148.0605083925437</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2769562.89369423</v>
+        <v>2768866.23248914</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114754</v>
+        <v>612367.9462114746</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>212.0346394779495</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>238.889209382204</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>175.5024969901338</v>
       </c>
       <c r="C4" t="n">
-        <v>155.6718849712435</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -898,25 +898,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>332.4965370384902</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>49.49512077555119</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1056,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>142.9763125600135</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1122,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.1738688991887</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1150,10 +1150,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>244.708485287975</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>127.4551843441467</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1299,7 +1299,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>33.46701689716767</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0.7573427009619353</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>65.06527153187778</v>
       </c>
       <c r="F13" t="n">
-        <v>10.02059770683782</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1660,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>206.9048608188591</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>163.9607423225982</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1906,13 +1906,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>401.283897344659</v>
       </c>
     </row>
     <row r="18">
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>127.4188965120221</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2064,7 +2064,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2089,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>8.860680944583946</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2478,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>34.02740555137143</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>8.198410775363186</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2718,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.39389778306408</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>221.2674185797597</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3012,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>116.2748171257525</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>6.750738971138739</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486146</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868327</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068495</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536208</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924936</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864457</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407054</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396332</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855908</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>218.716315245813</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095517</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250128</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026564</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>407.60279884393</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446584</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.2643090249448</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.252837489873</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399592</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060563</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963588</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040146986</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180512</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892119</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886527</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.9095796790295</v>
+        <v>224.0793406271552</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486146</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868327</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068495</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536208</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924936</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864457</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407041</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855908</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.716315245813</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095517</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250128</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026564</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>407.60279884393</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446584</v>
       </c>
     </row>
     <row r="39">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249448</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>170.252837489873</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399592</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060563</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.9059542963588</v>
       </c>
       <c r="U40" t="n">
-        <v>241.9348073050513</v>
+        <v>277.3826040146986</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180512</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892119</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886527</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271552</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486146</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868327</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536209</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924936</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864457</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407054</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396201</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095517</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446584</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249449</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>169.6356194967416</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>88.9538920728979</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712668</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060564</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.9059542963589</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040146986</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180513</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>272.103879789212</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886528</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271553</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486146</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868327</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536209</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924936</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864457</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407054</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396418</v>
+        <v>34.5479025439634</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458108</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095517</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446584</v>
       </c>
     </row>
     <row r="45">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249449</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068324</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831851</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060564</v>
       </c>
       <c r="T46" t="n">
-        <v>12.82988994717986</v>
+        <v>240.9059542963589</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040146986</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180513</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>272.103879789212</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886528</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271553</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>776.9486704051562</v>
+        <v>1669.020111868997</v>
       </c>
       <c r="C2" t="n">
-        <v>754.0883444588604</v>
+        <v>1242.119381882297</v>
       </c>
       <c r="D2" t="n">
-        <v>734.8361276842647</v>
+        <v>818.826761067297</v>
       </c>
       <c r="E2" t="n">
-        <v>712.8995918725263</v>
+        <v>392.8498212151545</v>
       </c>
       <c r="F2" t="n">
-        <v>287.7754100619266</v>
+        <v>371.7660434449588</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884621</v>
+        <v>371.4673850748114</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884621</v>
+        <v>73.59900654884625</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231742</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J2" t="n">
-        <v>401.305594109213</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="K2" t="n">
-        <v>521.1434366268318</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="L2" t="n">
-        <v>1000.08236086926</v>
+        <v>498.2899918885872</v>
       </c>
       <c r="M2" t="n">
-        <v>1000.08236086926</v>
+        <v>498.2899918885872</v>
       </c>
       <c r="N2" t="n">
-        <v>1000.08236086926</v>
+        <v>977.2289161310157</v>
       </c>
       <c r="O2" t="n">
-        <v>1479.021285111688</v>
+        <v>1456.167840373444</v>
       </c>
       <c r="P2" t="n">
-        <v>1479.021285111688</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489011</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533645</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="U2" t="n">
-        <v>1609.813899533645</v>
+        <v>1693.804532916677</v>
       </c>
       <c r="V2" t="n">
-        <v>1609.813899533645</v>
+        <v>1693.804532916677</v>
       </c>
       <c r="W2" t="n">
-        <v>1609.813899533645</v>
+        <v>1693.804532916677</v>
       </c>
       <c r="X2" t="n">
-        <v>1198.093900701392</v>
+        <v>1686.124938124828</v>
       </c>
       <c r="Y2" t="n">
-        <v>1196.797034696686</v>
+        <v>1684.828072120122</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565624</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294996</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124038</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000783</v>
+        <v>92.07822853000786</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231742</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231742</v>
+        <v>46.1487782542293</v>
       </c>
       <c r="J3" t="n">
-        <v>38.70213529231742</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>410.5729931455429</v>
+        <v>796.7851917762489</v>
       </c>
       <c r="L3" t="n">
-        <v>889.5119173879709</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="M3" t="n">
-        <v>1368.450841630399</v>
+        <v>1286.431531545695</v>
       </c>
       <c r="N3" t="n">
-        <v>1847.389765872827</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="O3" t="n">
-        <v>1847.389765872827</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="P3" t="n">
-        <v>1847.389765872827</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="Q3" t="n">
-        <v>1847.389765872827</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.9464635460988</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="C4" t="n">
-        <v>38.70213529231742</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="D4" t="n">
-        <v>38.70213529231742</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="E4" t="n">
-        <v>38.70213529231742</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="F4" t="n">
-        <v>38.70213529231742</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="G4" t="n">
-        <v>38.70213529231742</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231742</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231742</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>96.19346351647548</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271584</v>
+        <v>677.4103860167335</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974092</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773445</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453208</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1808.106634375111</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615871</v>
+        <v>1764.971717135008</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841771</v>
+        <v>1521.632369360908</v>
       </c>
       <c r="U4" t="n">
-        <v>1411.582968342075</v>
+        <v>1241.447920861212</v>
       </c>
       <c r="V4" t="n">
-        <v>1129.871500950104</v>
+        <v>959.736453469241</v>
       </c>
       <c r="W4" t="n">
-        <v>855.0190971226173</v>
+        <v>684.884049641754</v>
       </c>
       <c r="X4" t="n">
-        <v>612.4552005684224</v>
+        <v>442.3201530875591</v>
       </c>
       <c r="Y4" t="n">
-        <v>386.1124322581644</v>
+        <v>215.9773847773011</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1287.678729207028</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C5" t="n">
-        <v>860.7779992203286</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D5" t="n">
-        <v>437.4853784053289</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E5" t="n">
-        <v>415.5488425935905</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1674.245717477938</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N5" t="n">
-        <v>2224.911252462377</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>2120.543958335517</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="X5" t="n">
-        <v>1708.823959503264</v>
+        <v>2167.236586180072</v>
       </c>
       <c r="Y5" t="n">
-        <v>1707.527093498559</v>
+        <v>2165.939720175367</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>201.1892506764427</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="L6" t="n">
-        <v>751.8547856608809</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="M6" t="n">
-        <v>1302.520320645319</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N6" t="n">
-        <v>1853.185855629757</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>861.7025734666139</v>
+        <v>451.3798346740465</v>
       </c>
       <c r="C7" t="n">
-        <v>689.7300103455299</v>
+        <v>451.3798346740465</v>
       </c>
       <c r="D7" t="n">
-        <v>526.4132374723006</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E7" t="n">
-        <v>526.4132374723006</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F7" t="n">
-        <v>354.551463246861</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4740,37 +4740,37 @@
         <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>2007.737591668685</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U7" t="n">
-        <v>2007.737591668685</v>
+        <v>1667.016339470023</v>
       </c>
       <c r="V7" t="n">
-        <v>1726.026124276714</v>
+        <v>1385.304872078052</v>
       </c>
       <c r="W7" t="n">
-        <v>1451.173720449226</v>
+        <v>1110.452468250565</v>
       </c>
       <c r="X7" t="n">
-        <v>1208.609823895032</v>
+        <v>867.88857169637</v>
       </c>
       <c r="Y7" t="n">
-        <v>1051.868542178679</v>
+        <v>641.5458033861121</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>412.0068991484209</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C8" t="n">
-        <v>389.1465732021251</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D8" t="n">
-        <v>369.8943564275295</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
-        <v>347.9578206157911</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>326.8740428455954</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>326.5753844754481</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N8" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
         <v>1651.269438076291</v>
@@ -4837,19 +4837,19 @@
         <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1641.263477976562</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="V8" t="n">
-        <v>1641.263477976562</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="W8" t="n">
-        <v>1244.872128276909</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="X8" t="n">
-        <v>833.1521294446566</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y8" t="n">
-        <v>427.8148593995469</v>
+        <v>1761.899316134963</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="N9" t="n">
-        <v>866.8612493132769</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
         <v>1307.021068682275</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>995.2762092992346</v>
+        <v>961.4711417263379</v>
       </c>
       <c r="C10" t="n">
-        <v>823.3036461781505</v>
+        <v>789.4985786052539</v>
       </c>
       <c r="D10" t="n">
-        <v>659.9868733049212</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E10" t="n">
         <v>626.1818057320246</v>
@@ -4992,22 +4992,22 @@
         <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>2177.107646522315</v>
       </c>
       <c r="V10" t="n">
-        <v>1654.348842875753</v>
+        <v>1895.396179130343</v>
       </c>
       <c r="W10" t="n">
-        <v>1654.348842875753</v>
+        <v>1620.543775302856</v>
       </c>
       <c r="X10" t="n">
-        <v>1411.784946321558</v>
+        <v>1377.979878748662</v>
       </c>
       <c r="Y10" t="n">
-        <v>1185.4421780113</v>
+        <v>1151.637110438404</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
         <v>1690.508147261616</v>
@@ -5029,19 +5029,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
         <v>1180.414480198223</v>
@@ -5050,28 +5050,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>3105.626261478504</v>
+        <v>3444.155406100784</v>
       </c>
       <c r="O11" t="n">
-        <v>3950.770911629316</v>
+        <v>4289.300056251596</v>
       </c>
       <c r="P11" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q11" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
@@ -5083,7 +5083,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5117,25 +5117,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L12" t="n">
-        <v>138.8060889717951</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.79262694784</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N12" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
         <v>1910.990343986338</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.947609078273</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="C13" t="n">
-        <v>707.975045957189</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="D13" t="n">
-        <v>544.6582730839597</v>
+        <v>749.7087905854519</v>
       </c>
       <c r="E13" t="n">
-        <v>378.4500672368132</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F13" t="n">
-        <v>368.3282513713204</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G13" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
         <v>202.0712816655526</v>
@@ -5199,10 +5199,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T13" t="n">
-        <v>1869.241345563992</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U13" t="n">
-        <v>1869.241345563992</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V13" t="n">
-        <v>1587.529878172021</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W13" t="n">
-        <v>1312.677474344533</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X13" t="n">
-        <v>1070.113577790339</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y13" t="n">
-        <v>1070.113577790339</v>
+        <v>913.0255634586812</v>
       </c>
     </row>
     <row r="14">
@@ -5278,7 +5278,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
         <v>1180.414480198223</v>
@@ -5290,22 +5290,22 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>4090.576687723259</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O14" t="n">
-        <v>4090.576687723259</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
         <v>4789.842805209199</v>
@@ -5354,25 +5354,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>374.0002026854196</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M15" t="n">
-        <v>374.0002026854196</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N15" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
         <v>1910.990343986338</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>2065.542080025265</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1783.830612633294</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>1783.830612633294</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>1541.266716079099</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,49 +5515,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5594,22 +5594,22 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>109.7493563677404</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M18" t="n">
-        <v>1165.735894343786</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N18" t="n">
-        <v>1165.735894343786</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>818.4078435766714</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>646.4352804555874</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>646.4352804555874</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>517.7293243828378</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1477.48047715319</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1234.916580598995</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1008.573812288737</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5737,40 +5737,40 @@
         <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5831,25 +5831,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1853.966407265231</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1853.966407265231</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3751.926991295665</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>3579.954428174581</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>3416.637655301352</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>3416.637655301352</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>3244.775881075912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4945.000622810562</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>4701.661275036462</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>4701.661275036462</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4419.949807644491</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>4410.999624872184</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>4168.435728317989</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>3942.092960007731</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,25 +6065,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1085.715267670341</v>
+        <v>509.1843230306275</v>
       </c>
       <c r="C25" t="n">
-        <v>913.7427045492574</v>
+        <v>509.1843230306275</v>
       </c>
       <c r="D25" t="n">
-        <v>750.4259316760281</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="E25" t="n">
-        <v>584.2177258288816</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F25" t="n">
-        <v>412.355951603442</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2248.3446241004</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2248.3446241004</v>
       </c>
       <c r="T25" t="n">
-        <v>2057.260857019848</v>
+        <v>2005.0052763263</v>
       </c>
       <c r="U25" t="n">
-        <v>1777.076408520152</v>
+        <v>1724.820827826604</v>
       </c>
       <c r="V25" t="n">
-        <v>1777.076408520152</v>
+        <v>1443.109360434633</v>
       </c>
       <c r="W25" t="n">
-        <v>1502.224004692665</v>
+        <v>1168.256956607146</v>
       </c>
       <c r="X25" t="n">
-        <v>1502.224004692665</v>
+        <v>925.6930600529511</v>
       </c>
       <c r="Y25" t="n">
-        <v>1275.881236382407</v>
+        <v>699.3502917426931</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6302,25 +6302,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3918.135197142812</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3746.162634021728</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3582.845861148498</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3416.637655301352</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3244.775881075912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810562</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4701.661275036462</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4701.661275036462</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4419.949807644491</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>4419.949807644491</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>4177.385911090296</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>4108.301165854878</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>1125.089101572745</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L29" t="n">
-        <v>1125.089101572745</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M29" t="n">
-        <v>2129.375202991803</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N29" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6542,25 +6542,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.4138558574795</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>675.4412927363954</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D31" t="n">
-        <v>512.1245198631661</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E31" t="n">
-        <v>512.1245198631661</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1842.039637015407</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1561.855188515711</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1280.14372112374</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.14372112374</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>1037.579824569545</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>1037.579824569545</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6709,16 +6709,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2110.0395278175</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>3306.448039710919</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="K33" t="n">
-        <v>3306.448039710919</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="L33" t="n">
-        <v>4143.246847793825</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="M33" t="n">
-        <v>5115.135670291427</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N33" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O33" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3385.144476738222</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3213.171913617138</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3213.171913617138</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3206.352985363462</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.43821322394</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831969</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004482</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.310445450287</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>3575.310445450287</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063314</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623571</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6940,49 +6940,49 @@
         <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2398.817321261059</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596597</v>
       </c>
       <c r="O35" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747409</v>
       </c>
       <c r="P35" t="n">
-        <v>4928.4923090565</v>
+        <v>4541.493855905337</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.57933540952</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291423</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164563</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.842805209197</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805609</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931858</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399953</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354844</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C36" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D36" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E36" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F36" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7025,16 +7025,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>357.5299206506891</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7058,10 +7058,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y36" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3350.149253855307</v>
+        <v>373.4203922683223</v>
       </c>
       <c r="C37" t="n">
-        <v>3350.149253855307</v>
+        <v>201.4478291472385</v>
       </c>
       <c r="D37" t="n">
-        <v>3350.149253855307</v>
+        <v>201.4478291472385</v>
       </c>
       <c r="E37" t="n">
-        <v>3350.149253855307</v>
+        <v>201.4478291472385</v>
       </c>
       <c r="F37" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299867</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308293</v>
+        <v>386.321642835824</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302449</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100496</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818959</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818959</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497734</v>
+        <v>2112.580693338094</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723634</v>
+        <v>1869.241345563994</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.438213223939</v>
+        <v>1589.056897064298</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831968</v>
+        <v>1307.345429672327</v>
       </c>
       <c r="W37" t="n">
-        <v>3817.874342004481</v>
+        <v>1032.49302584484</v>
       </c>
       <c r="X37" t="n">
-        <v>3575.310445450286</v>
+        <v>789.9291292906456</v>
       </c>
       <c r="Y37" t="n">
-        <v>3350.149253855307</v>
+        <v>563.5863609803878</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063313</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076614</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261614</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409472</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988722</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.067963188321</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7180,46 +7180,46 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>2110.0395278175</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N38" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596597</v>
       </c>
       <c r="O38" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747409</v>
       </c>
       <c r="P38" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905337</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.57933540952</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291423</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164563</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.842805209197</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805609</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931858</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399953</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354843</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F39" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360798</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="N39" t="n">
-        <v>223.2920388516654</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="O39" t="n">
-        <v>1112.773316863137</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7295,10 +7295,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>775.6620294727279</v>
+        <v>373.4203922683223</v>
       </c>
       <c r="C40" t="n">
-        <v>603.6894663516439</v>
+        <v>201.4478291472385</v>
       </c>
       <c r="D40" t="n">
-        <v>440.3726934784146</v>
+        <v>201.4478291472385</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472385</v>
       </c>
       <c r="F40" t="n">
         <v>102.3027134058285</v>
@@ -7332,52 +7332,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299867</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.321642835824</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302449</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100496</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818959</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818959</v>
       </c>
       <c r="S40" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338094</v>
       </c>
       <c r="T40" t="n">
-        <v>2235.67712750613</v>
+        <v>1869.241345563994</v>
       </c>
       <c r="U40" t="n">
-        <v>1991.298534268705</v>
+        <v>1589.056897064298</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.587066876733</v>
+        <v>1307.345429672327</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.734663049246</v>
+        <v>1032.49302584484</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.170766495052</v>
+        <v>789.9291292906456</v>
       </c>
       <c r="Y40" t="n">
-        <v>965.8279981847936</v>
+        <v>563.5863609803878</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063312</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076612</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261614</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409472</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988721</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883208</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623557</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.8188681099</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596601</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747413</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905337</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.57933540952</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291423</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164563</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209197</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805608</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931858</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232205</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399952</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354842</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C42" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D42" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E42" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F42" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H42" t="n">
         <v>102.3027134058285</v>
@@ -7493,19 +7493,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>1529.586448057074</v>
+        <v>939.1015214887345</v>
       </c>
       <c r="M42" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
         <v>1910.990343986338</v>
@@ -7532,10 +7532,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y42" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>843.1025083526774</v>
+        <v>373.4203922683217</v>
       </c>
       <c r="C43" t="n">
-        <v>671.1299452315934</v>
+        <v>202.0712816655524</v>
       </c>
       <c r="D43" t="n">
-        <v>507.8131723583641</v>
+        <v>202.0712816655524</v>
       </c>
       <c r="E43" t="n">
-        <v>417.9607561231137</v>
+        <v>202.0712816655524</v>
       </c>
       <c r="F43" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655524</v>
       </c>
       <c r="G43" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655524</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655524</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358239</v>
       </c>
       <c r="L43" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302447</v>
       </c>
       <c r="M43" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100496</v>
       </c>
       <c r="N43" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.580693338092</v>
+        <v>2112.580693338093</v>
       </c>
       <c r="T43" t="n">
-        <v>2112.580693338092</v>
+        <v>1869.241345563993</v>
       </c>
       <c r="U43" t="n">
-        <v>1832.396244838396</v>
+        <v>1589.056897064298</v>
       </c>
       <c r="V43" t="n">
-        <v>1550.684777446425</v>
+        <v>1307.345429672327</v>
       </c>
       <c r="W43" t="n">
-        <v>1275.832373618938</v>
+        <v>1032.49302584484</v>
       </c>
       <c r="X43" t="n">
-        <v>1033.268477064743</v>
+        <v>789.9291292906451</v>
       </c>
       <c r="Y43" t="n">
-        <v>1033.268477064743</v>
+        <v>563.5863609803872</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988735</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.199584662358</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>1180.414480198223</v>
+        <v>195.4640539534638</v>
       </c>
       <c r="L44" t="n">
-        <v>1180.414480198223</v>
+        <v>1125.08910157274</v>
       </c>
       <c r="M44" t="n">
-        <v>2129.375202991802</v>
+        <v>2129.375202991799</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478503</v>
+        <v>3105.6262614785</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629315</v>
+        <v>3950.770911629312</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787243</v>
+        <v>4659.050190787239</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291423</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291423</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164563</v>
       </c>
       <c r="T44" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399954</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C45" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D45" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E45" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F45" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H45" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>1218.245653730238</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>1218.245653730238</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>1218.245653730238</v>
+        <v>1191.617659878698</v>
       </c>
       <c r="O45" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P45" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7769,10 +7769,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y45" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3436.220184719758</v>
+        <v>373.4203922683217</v>
       </c>
       <c r="C46" t="n">
-        <v>3264.247621598674</v>
+        <v>274.1644876312679</v>
       </c>
       <c r="D46" t="n">
-        <v>3100.930848725444</v>
+        <v>274.1644876312679</v>
       </c>
       <c r="E46" t="n">
-        <v>2934.722642878298</v>
+        <v>274.1644876312679</v>
       </c>
       <c r="F46" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358239</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302447</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100496</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R46" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="S46" t="n">
-        <v>4945.000622810561</v>
+        <v>2112.580693338093</v>
       </c>
       <c r="T46" t="n">
-        <v>4932.04113801543</v>
+        <v>1869.241345563993</v>
       </c>
       <c r="U46" t="n">
-        <v>4651.856689515735</v>
+        <v>1589.056897064298</v>
       </c>
       <c r="V46" t="n">
-        <v>4370.145222123763</v>
+        <v>1307.345429672327</v>
       </c>
       <c r="W46" t="n">
-        <v>4095.292818296276</v>
+        <v>1032.49302584484</v>
       </c>
       <c r="X46" t="n">
-        <v>3852.728921742081</v>
+        <v>789.9291292906451</v>
       </c>
       <c r="Y46" t="n">
-        <v>3626.386153431823</v>
+        <v>563.5863609803872</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>156.8129265701819</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0887335865907</v>
+        <v>502.5422006106731</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884142</v>
       </c>
       <c r="O2" t="n">
-        <v>521.1676505099919</v>
+        <v>521.1676505099923</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641995</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8054,22 +8054,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>398.0263629780055</v>
+        <v>506.1759249873015</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681973</v>
+        <v>506.2917778681978</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662958</v>
+        <v>33.91235175174003</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675094</v>
+        <v>505.1197193675099</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
@@ -8081,7 +8081,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>93.31363181978782</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>29.03818836740821</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>571.1852249800523</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>203.6125166681525</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>180.6729970931265</v>
+        <v>90.30334755109108</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
@@ -8306,19 +8306,19 @@
         <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8388,7 +8388,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>381.5174992961657</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>547.9365584046774</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8543,13 +8543,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>467.7777678727251</v>
+        <v>178.4700015426657</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
@@ -8698,10 +8698,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>56.96224792398087</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>370.4410136063919</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,10 +8710,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,28 +8765,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>467.0745387486232</v>
       </c>
       <c r="L12" t="n">
-        <v>59.38718324550895</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8938,13 +8938,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>493.0472488628404</v>
+        <v>625.4779643536363</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9002,28 +9002,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>473.9680076978074</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9169,10 +9169,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792397994</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9184,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,25 +9242,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>52.52212467581292</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>125.0635317985269</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9479,28 +9479,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>80.34697437090524</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9658,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,28 +9713,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>248.2838641991609</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,19 +9883,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,28 +9950,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>60.04398625350153</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10114,16 +10114,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>702.6160445827093</v>
+        <v>630.9692526488932</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10135,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10357,10 +10357,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10369,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>397.6042905607445</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>270.8945125989381</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1004.802661823038</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10448,7 +10448,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10588,16 +10588,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406053</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10606,7 +10606,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>105.9095497086629</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10673,19 +10673,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>280.9020403556215</v>
+        <v>228.1560083209544</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10828,13 +10828,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>848.7638096822399</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10843,7 +10843,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>397.6042905607436</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>143.5544680578214</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>400.9064886791438</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,16 +11068,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>304.4845953330639</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>493.0472488628359</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11141,13 +11141,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11156,7 +11156,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>407.0273017394389</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>129.86696498434</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>995.9774475394107</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
@@ -11372,25 +11372,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>171.2323981147659</v>
+        <v>280.9771495655158</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -11399,7 +11399,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>99.48085225679719</v>
       </c>
       <c r="F13" t="n">
-        <v>160.1225587763473</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>60.11859830455714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,7 +23898,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>37.12722727665289</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24180,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>263.2431988446282</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>12.54082162832715</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>232.7075435209958</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24651,25 +24651,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>155.6854428440913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>19.63853571659928</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>71.98949189919253</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>157.7953848175362</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>161.6836051444968</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>164.5461237886748</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>71.98949189918909</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>164.59440000871</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.358305806927</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.7708825771266</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.5682271796984</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.169760948125884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.6836051444968</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.5461237886748</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>71.98949189918909</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>164.59440000871</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>142.358305806927</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>98.7708825771266</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.5682271796984</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>35.44779670964749</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.6172179931314474</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.6836051444969</v>
       </c>
       <c r="E43" t="n">
-        <v>75.59223171577707</v>
+        <v>164.5461237886749</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831851</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5944000087101</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.358305806927</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>71.98949189918979</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.6836051444969</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.5461237886749</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5944000087101</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>142.358305806927</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>98.77088257712668</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969848</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>228.0760643491791</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>493103.3693430057</v>
+        <v>493103.3693430058</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>493103.3693430057</v>
+        <v>493103.3693430058</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>493103.3693430057</v>
+        <v>493103.3693430058</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>582442.668011163</v>
+        <v>582442.6680111632</v>
       </c>
       <c r="C2" t="n">
-        <v>582442.6680111629</v>
+        <v>582442.6680111632</v>
       </c>
       <c r="D2" t="n">
-        <v>582442.6680111629</v>
+        <v>582442.6680111632</v>
       </c>
       <c r="E2" t="n">
         <v>562030.4031374473</v>
       </c>
       <c r="F2" t="n">
+        <v>562030.4031374475</v>
+      </c>
+      <c r="G2" t="n">
+        <v>562030.4031374473</v>
+      </c>
+      <c r="H2" t="n">
         <v>562030.4031374474</v>
       </c>
-      <c r="G2" t="n">
-        <v>562030.4031374475</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>562030.4031374473</v>
-      </c>
-      <c r="I2" t="n">
-        <v>562030.4031374472</v>
       </c>
       <c r="J2" t="n">
         <v>562030.4031374473</v>
       </c>
       <c r="K2" t="n">
-        <v>562030.4031374474</v>
+        <v>562030.4031374477</v>
       </c>
       <c r="L2" t="n">
-        <v>562030.4031374474</v>
+        <v>562030.4031374477</v>
       </c>
       <c r="M2" t="n">
-        <v>562030.4031374474</v>
+        <v>562030.4031374471</v>
       </c>
       <c r="N2" t="n">
-        <v>562030.4031374474</v>
+        <v>562030.4031374473</v>
       </c>
       <c r="O2" t="n">
-        <v>562030.4031374477</v>
+        <v>562030.4031374472</v>
       </c>
       <c r="P2" t="n">
-        <v>562030.4031374474</v>
+        <v>562030.4031374475</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695911</v>
+        <v>162124.6960695913</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.8336736123</v>
+        <v>23406.83367361215</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802887</v>
+        <v>126577.2685802889</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701986</v>
+        <v>18646.60035701974</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551676</v>
+        <v>180063.8714551675</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>72380.62724986371</v>
       </c>
       <c r="G4" t="n">
-        <v>72380.62724986367</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="H4" t="n">
         <v>72380.62724986368</v>
@@ -26441,25 +26441,25 @@
         <v>72380.62724986371</v>
       </c>
       <c r="J4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="K4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="L4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="M4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986384</v>
       </c>
       <c r="N4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.6272498639</v>
       </c>
       <c r="O4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986384</v>
       </c>
       <c r="P4" t="n">
-        <v>72380.62724986368</v>
+        <v>72380.62724986387</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216124</v>
+        <v>63041.22282216126</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,13 +26478,13 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842964</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842964</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842964</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842964</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>161789.4282068289</v>
       </c>
       <c r="C6" t="n">
-        <v>308968.5177842234</v>
+        <v>308968.517784224</v>
       </c>
       <c r="D6" t="n">
-        <v>332375.3514578357</v>
+        <v>332375.351457836</v>
       </c>
       <c r="E6" t="n">
-        <v>196160.3571425133</v>
+        <v>196109.3264803291</v>
       </c>
       <c r="F6" t="n">
-        <v>411899.713699154</v>
+        <v>411848.6830369699</v>
       </c>
       <c r="G6" t="n">
-        <v>411899.7136991542</v>
+        <v>411848.6830369697</v>
       </c>
       <c r="H6" t="n">
-        <v>411899.713699154</v>
+        <v>411848.6830369697</v>
       </c>
       <c r="I6" t="n">
-        <v>411899.7136991538</v>
+        <v>411848.6830369696</v>
       </c>
       <c r="J6" t="n">
-        <v>285322.4451188652</v>
+        <v>285271.4144566808</v>
       </c>
       <c r="K6" t="n">
-        <v>393253.1133421342</v>
+        <v>393202.0826799503</v>
       </c>
       <c r="L6" t="n">
-        <v>411899.713699154</v>
+        <v>411848.68303697</v>
       </c>
       <c r="M6" t="n">
-        <v>231835.8422439864</v>
+        <v>231784.8115818018</v>
       </c>
       <c r="N6" t="n">
-        <v>411899.7136991541</v>
+        <v>411848.6830369695</v>
       </c>
       <c r="O6" t="n">
-        <v>411899.7136991543</v>
+        <v>411848.6830369695</v>
       </c>
       <c r="P6" t="n">
-        <v>411899.7136991541</v>
+        <v>411848.6830369697</v>
       </c>
     </row>
   </sheetData>
@@ -26715,19 +26715,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26822,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
     </row>
   </sheetData>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.478997154632013e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162637</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162637</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572624</v>
+        <v>722.5561044572613</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162637</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>188.2610323084963</v>
-      </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>16.88215092734779</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -27444,7 +27444,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>12.76181203481116</v>
       </c>
       <c r="C4" t="n">
-        <v>14.58095251862963</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -27587,7 +27587,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>88.37640295400354</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27678,10 +27678,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>342.9323154271054</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>134.4062914546852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>68.9054717279667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>50.18120945273051</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>128.3161759654051</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>131.0791068915073</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28064,16 +28064,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>276.6252613137368</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-4.820566934132988e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-8.313350008393172e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-13</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.489660605743887e-12</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30750,22 +30750,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1.06557318671112e-13</v>
       </c>
     </row>
   </sheetData>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>121.0483257753725</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>483.7766911539678</v>
+        <v>464.2301581780502</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34774,22 +34774,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>375.6271291446722</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539678</v>
+        <v>10.81557123941205</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>71.39487192408659</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>6.65738770942173</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>158.2737632597931</v>
+        <v>67.90411371775774</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
@@ -35026,19 +35026,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35108,7 +35108,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>359.0183117977413</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>510.5455990486533</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35248,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>444.6058781505029</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
@@ -35418,10 +35418,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>19.53098502454905</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>333.1613907719459</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,10 +35430,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="L12" t="n">
-        <v>36.87209653127939</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35658,13 +35658,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>455.4718870526091</v>
+        <v>587.902602543405</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>452.1971664929787</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35889,10 +35889,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454813</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35904,10 +35904,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>29.35023495359069</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>57.59993608192674</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36378,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,19 +36603,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>36.8720965312793</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,16 +36834,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>666.8514437878999</v>
+        <v>595.2046518540839</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36855,7 +36855,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,10 +37077,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37089,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>361.4796159561464</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>250.2833982656047</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>981.7058813107097</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061592</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37326,7 +37326,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>69.78487510406481</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37393,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8052598432935</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.07204871127072</v>
+        <v>58.0720487112709</v>
       </c>
       <c r="K37" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937751</v>
       </c>
       <c r="L37" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115363</v>
       </c>
       <c r="M37" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366172</v>
       </c>
       <c r="N37" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404404</v>
       </c>
       <c r="O37" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977406</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968699</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391536</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,13 +37548,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>811.4841868477938</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37563,7 +37563,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>361.4796159561455</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>122.2114398442797</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>377.7345989569216</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127072</v>
+        <v>58.0720487112709</v>
       </c>
       <c r="K40" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937751</v>
       </c>
       <c r="L40" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115363</v>
       </c>
       <c r="M40" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366172</v>
       </c>
       <c r="N40" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404404</v>
       </c>
       <c r="O40" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977406</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968699</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391536</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,16 +37788,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>267.0533324336321</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>455.4718870526046</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>981.7058813107109</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127083</v>
       </c>
       <c r="K43" t="n">
-        <v>228.8157587937749</v>
+        <v>228.815758793775</v>
       </c>
       <c r="L43" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115362</v>
       </c>
       <c r="M43" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366171</v>
       </c>
       <c r="N43" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404403</v>
       </c>
       <c r="O43" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977406</v>
       </c>
       <c r="P43" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968698</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391536</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>94.10236418953066</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>958.5461846399789</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>148.0605083925437</v>
+        <v>257.8052598432936</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127083</v>
       </c>
       <c r="K46" t="n">
-        <v>228.8157587937749</v>
+        <v>228.815758793775</v>
       </c>
       <c r="L46" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115362</v>
       </c>
       <c r="M46" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366171</v>
       </c>
       <c r="N46" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404403</v>
       </c>
       <c r="O46" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977406</v>
       </c>
       <c r="P46" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968698</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391536</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
